--- a/Running projects/Food Court North Walk/325-326 Bill for HVAC work at Gym area.xlsx
+++ b/Running projects/Food Court North Walk/325-326 Bill for HVAC work at Gym area.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Food Court North Walk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Food Court North Walk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCFDE9B-1FED-4D95-817B-92CC29CA9654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F0429F-5567-4209-9716-38136DCA6644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="325 supply" sheetId="1" r:id="rId1"/>
     <sheet name="326 labour" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'325 supply'!$A$1:$F$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'325 supply'!$A$1:$F$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'326 labour'!$A$1:$F$53</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'325 supply'!$15:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'326 labour'!$15:$15</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="77">
   <si>
     <r>
       <rPr>
@@ -391,12 +391,6 @@
     <t>Supply of M.S Channel with hangers &amp; supports for Owner supply package unit</t>
   </si>
   <si>
-    <t>Bill for Supply of Material for HVAC work at Gym Area North Walk Shopping mall</t>
-  </si>
-  <si>
-    <t>Bill for Installation of Material for HVAC work at Gym Area North Walk Shopping mall</t>
-  </si>
-  <si>
     <t>Installation of Owner supplied Fabric duct with metal flexible rope and brackets.</t>
   </si>
   <si>
@@ -404,6 +398,18 @@
   </si>
   <si>
     <t>Installation of DX ducted type split unit.</t>
+  </si>
+  <si>
+    <t>Bill for Supply of Material for HVAC work at  Atmosphere gym North Walk Shopping mall</t>
+  </si>
+  <si>
+    <t>Bill for Installation of Material for HVAC work at Atmosphere gym North Walk Shopping mall</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Net Amount</t>
   </si>
 </sst>
 </file>
@@ -613,7 +619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -715,9 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -774,10 +777,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85483</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>676275</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247408</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="642937" cy="466636"/>
     <xdr:pic>
@@ -807,7 +810,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85483" y="13363575"/>
+          <a:off x="11515483" y="12649200"/>
           <a:ext cx="642937" cy="466636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -819,16 +822,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>687072</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>277497</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>295276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>819151</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -845,7 +848,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1020447" y="295276"/>
+          <a:off x="9411972" y="1552576"/>
           <a:ext cx="4551679" cy="676274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -922,16 +925,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>838201</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -955,7 +958,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="219075" y="85725"/>
+          <a:off x="8610600" y="1343025"/>
           <a:ext cx="952501" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -979,10 +982,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>828675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="642937" cy="466636"/>
     <xdr:pic>
@@ -1012,7 +1015,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="13325475"/>
+          <a:off x="9648825" y="11601450"/>
           <a:ext cx="642937" cy="466636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1024,16 +1027,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>601589</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>306314</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533643</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57393</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1050,7 +1053,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="934964" y="371476"/>
+          <a:off x="7907264" y="495301"/>
           <a:ext cx="4551679" cy="676274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1127,16 +1130,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133592</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247892</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>752718</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457443</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1160,7 +1163,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="133592" y="161925"/>
+          <a:off x="7105892" y="285750"/>
           <a:ext cx="952501" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1467,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:F48"/>
+  <dimension ref="A5:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1513,7 +1516,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="2">
-        <v>45533</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1533,44 +1536,44 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="A14" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
@@ -1791,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>34</v>
@@ -2180,28 +2183,45 @@
         <v>2533020</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="10" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="34"/>
-    </row>
-    <row r="47" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="40" t="s">
+      <c r="E46" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="15">
+        <v>376890</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="15">
+        <f>F45-F46</f>
+        <v>2156130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="28"/>
-    </row>
-    <row r="48" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -2218,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7722B710-092E-422C-AF02-4B6DDF12F404}">
   <dimension ref="A5:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2262,7 +2282,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="2">
-        <v>45533</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2282,44 +2302,44 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="A14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
@@ -2367,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>10</v>
@@ -2537,7 +2557,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>34</v>
@@ -2969,10 +2989,10 @@
       <c r="B48" s="11"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="35">
         <f>SUM(F16:F47)</f>
         <v>587810</v>
       </c>
@@ -2982,10 +3002,10 @@
       <c r="B49" s="11"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="37">
         <f>F48*15%</f>
         <v>88171.5</v>
       </c>
@@ -2996,23 +3016,23 @@
       <c r="B50" s="11"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="37">
         <f>F49+F48</f>
         <v>675981.5</v>
       </c>
-      <c r="I50" s="39"/>
+      <c r="I50" s="38"/>
     </row>
     <row r="51" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
       <c r="F51" s="28"/>
     </row>
     <row r="52" spans="1:9" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
